--- a/Dan Team/Richard/AOBLogin/Default.xlsx
+++ b/Dan Team/Richard/AOBLogin/Default.xlsx
@@ -475,7 +475,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.10546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customFormat="1"/>
